--- a/Pruebas Experimentales/Prueba Temperatura/Prueba 17C/PRUEBA_TEMPERATURA_23_17C.xlsx
+++ b/Pruebas Experimentales/Prueba Temperatura/Prueba 17C/PRUEBA_TEMPERATURA_23_17C.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Datos crudos" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>Timestamp</t>
   </si>
@@ -73,109 +73,118 @@
     <t>Temperature</t>
   </si>
   <si>
-    <t>2023-12-10 01:45:33</t>
-  </si>
-  <si>
-    <t>2023-12-10 01:46:34</t>
-  </si>
-  <si>
-    <t>2023-12-10 01:47:36</t>
-  </si>
-  <si>
-    <t>2023-12-10 01:48:37</t>
-  </si>
-  <si>
-    <t>2023-12-10 01:49:39</t>
-  </si>
-  <si>
-    <t>2023-12-10 01:50:41</t>
-  </si>
-  <si>
-    <t>2023-12-10 01:51:42</t>
-  </si>
-  <si>
-    <t>2023-12-10 01:52:44</t>
-  </si>
-  <si>
-    <t>2023-12-10 01:53:45</t>
-  </si>
-  <si>
-    <t>2023-12-10 01:54:47</t>
-  </si>
-  <si>
-    <t>2023-12-10 01:55:49</t>
-  </si>
-  <si>
-    <t>2023-12-10 01:56:50</t>
-  </si>
-  <si>
-    <t>2023-12-10 01:57:52</t>
-  </si>
-  <si>
-    <t>2023-12-10 01:58:54</t>
-  </si>
-  <si>
-    <t>2023-12-10 01:59:55</t>
-  </si>
-  <si>
-    <t>2023-12-10 02:00:57</t>
-  </si>
-  <si>
-    <t>2023-12-10 02:01:58</t>
-  </si>
-  <si>
-    <t>2023-12-10 02:03:00</t>
-  </si>
-  <si>
-    <t>2023-12-10 02:04:02</t>
-  </si>
-  <si>
-    <t>2023-12-10 02:05:03</t>
-  </si>
-  <si>
-    <t>2023-12-10 02:06:05</t>
-  </si>
-  <si>
-    <t>2023-12-10 02:07:06</t>
-  </si>
-  <si>
-    <t>2023-12-10 02:08:08</t>
-  </si>
-  <si>
-    <t>2023-12-10 02:09:10</t>
-  </si>
-  <si>
-    <t>2023-12-10 02:10:11</t>
-  </si>
-  <si>
-    <t>2023-12-10 02:11:13</t>
-  </si>
-  <si>
-    <t>2023-12-10 02:12:15</t>
-  </si>
-  <si>
-    <t>2023-12-10 02:13:16</t>
-  </si>
-  <si>
-    <t>2023-12-10 02:14:18</t>
-  </si>
-  <si>
-    <t>2023-12-10 02:15:19</t>
-  </si>
-  <si>
-    <t>2023-12-10 02:16:21</t>
-  </si>
-  <si>
-    <t>2023-12-10 02:17:23</t>
-  </si>
-  <si>
-    <t>2023-12-10 02:18:24</t>
-  </si>
-  <si>
-    <t>2023-12-10 02:19:26</t>
-  </si>
-  <si>
-    <t>2023-12-10 02:20:27</t>
+    <t>2023-12-09 06:23:18</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:24:20</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:25:22</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:26:24</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:27:26</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:28:28</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:29:30</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:30:32</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:31:35</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:32:37</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:33:39</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:34:41</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:35:43</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:36:45</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:37:47</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:38:50</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:39:52</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:40:54</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:41:56</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:42:58</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:44:00</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:45:02</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:46:04</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:47:07</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:48:09</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:49:11</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:50:13</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:51:15</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:52:17</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:53:19</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:54:22</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:55:24</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:56:26</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:57:28</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:58:30</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:59:32</t>
+  </si>
+  <si>
+    <t>2023-12-09 07:00:34</t>
+  </si>
+  <si>
+    <t>2023-12-09 07:01:36</t>
   </si>
 </sst>
 </file>
@@ -842,72 +851,72 @@
           </c:trendline>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos crudos'!$E$2:$E$36</c:f>
+              <c:f>'Datos crudos'!$E$2:$E$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>24.886363636363601</c:v>
+                  <c:v>26.8531468531468</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.0506993006993</c:v>
+                  <c:v>25.673076923076898</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.263986013985999</c:v>
+                  <c:v>24.7552447552447</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.0017482517482</c:v>
+                  <c:v>23.181818181818102</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>21.870629370629299</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.477272727272702</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>21.215034965034899</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>21.739510489510501</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21.346153846153801</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.821678321678299</c:v>
+                  <c:v>21.215034965034899</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.9527972027972</c:v>
+                  <c:v>20.428321678321701</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.5594405594405</c:v>
+                  <c:v>20.428321678321701</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>20.2972027972028</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>20.166083916083899</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>20.2972027972028</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>20.166083916083899</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>19.772727272727298</c:v>
+                  <c:v>20.2972027972028</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>20.166083916083899</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>19.772727272727298</c:v>
+                  <c:v>20.034965034965001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>19.510489510489499</c:v>
+                  <c:v>20.034965034965001</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>19.9038461538461</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.772727272727298</c:v>
+                  <c:v>20.428321678321701</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>20.034965034965001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20.034965034965001</c:v>
+                  <c:v>19.9038461538461</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>19.772727272727298</c:v>
@@ -916,40 +925,49 @@
                   <c:v>19.772727272727298</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>20.166083916083899</c:v>
+                  <c:v>20.034965034965001</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>19.772727272727298</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>19.9038461538461</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>19.510489510489499</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>20.034965034965001</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>20.034965034965001</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>19.9038461538461</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>19.9038461538461</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>19.510489510489499</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>19.772727272727298</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>19.9038461538461</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>19.379370629370602</c:v>
-                </c:pt>
                 <c:pt idx="31">
+                  <c:v>19.641608391608401</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>19.641608391608401</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>19.641608391608401</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>19.641608391608401</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>20.034965034965001</c:v>
                 </c:pt>
-                <c:pt idx="32">
-                  <c:v>20.428321678321701</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>20.821678321678299</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>21.215034965034899</c:v>
+                <c:pt idx="36">
+                  <c:v>19.641608391608401</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>19.510489510489499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1037,7 +1055,7 @@
         <c:axId val="465779280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="17"/>
+          <c:min val="19"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1206,37 +1224,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>19.9038461538461</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.9038461538461</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.510489510489499</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>19.772727272727298</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>19.772727272727298</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20.166083916083899</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>19.641608391608401</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.641608391608401</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.641608391608401</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.641608391608401</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.034965034965001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.641608391608401</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>19.510489510489499</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20.034965034965001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20.034965034965001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>19.9038461538461</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>19.772727272727298</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>19.9038461538461</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19.379370629370602</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20.034965034965001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1333,10 +1351,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>19.844246662428468</c:v>
+                  <c:v>19.713127781309591</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.844246662428468</c:v>
+                  <c:v>19.713127781309591</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3058,10 +3076,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3107,17 +3125,17 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>24.886363636363601</v>
+        <v>26.8531468531468</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
       </c>
       <c r="H2">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I2" s="4">
         <f>INDEX(C:C,H2)-C2</f>
-        <v>9.2708333322661929E-3</v>
+        <v>6.4699074064265005E-3</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -3134,14 +3152,14 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>23.0506993006993</v>
+        <v>25.673076923076898</v>
       </c>
       <c r="G3" t="s">
         <v>3</v>
       </c>
       <c r="H3">
-        <f>COUNT(E:E)-3</f>
-        <v>32</v>
+        <f>COUNT(E:E)</f>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -3158,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>22.263986013985999</v>
+        <v>24.7552447552447</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -3175,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>22.0017482517482</v>
+        <v>23.181818181818102</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -3192,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>21.215034965034899</v>
+        <v>21.870629370629299</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -3209,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>21.739510489510501</v>
+        <v>21.477272727272702</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3226,7 +3244,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="3">
-        <v>21.346153846153801</v>
+        <v>21.215034965034899</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -3243,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>20.821678321678299</v>
+        <v>21.215034965034899</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -3260,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>20.9527972027972</v>
+        <v>20.428321678321701</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -3277,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>20.5594405594405</v>
+        <v>20.428321678321701</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -3294,7 +3312,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>20.166083916083899</v>
+        <v>20.2972027972028</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -3311,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>20.2972027972028</v>
+        <v>20.166083916083899</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -3328,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>20.166083916083899</v>
+        <v>20.2972027972028</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -3345,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>19.772727272727298</v>
+        <v>20.2972027972028</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -3379,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>19.772727272727298</v>
+        <v>20.034965034965001</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -3396,7 +3414,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>19.510489510489499</v>
+        <v>20.034965034965001</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -3430,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>19.772727272727298</v>
+        <v>20.428321678321701</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -3464,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>20.034965034965001</v>
+        <v>19.9038461538461</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -3515,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>20.166083916083899</v>
+        <v>20.034965034965001</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -3532,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>19.510489510489499</v>
+        <v>19.772727272727298</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -3549,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>20.034965034965001</v>
+        <v>19.9038461538461</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -3566,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>20.034965034965001</v>
+        <v>19.510489510489499</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -3600,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>19.772727272727298</v>
+        <v>19.9038461538461</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -3617,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>19.9038461538461</v>
+        <v>19.510489510489499</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -3634,7 +3652,7 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>19.379370629370602</v>
+        <v>19.772727272727298</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -3651,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>20.034965034965001</v>
+        <v>19.641608391608401</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -3668,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>20.428321678321701</v>
+        <v>19.641608391608401</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -3685,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>20.821678321678299</v>
+        <v>19.641608391608401</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -3702,7 +3720,58 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>21.215034965034899</v>
+        <v>19.641608391608401</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>23</v>
+      </c>
+      <c r="B37">
+        <v>17</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>20.034965034965001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>23</v>
+      </c>
+      <c r="B38">
+        <v>17</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>19.641608391608401</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>23</v>
+      </c>
+      <c r="B39">
+        <v>17</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>19.510489510489499</v>
       </c>
     </row>
   </sheetData>
@@ -3715,8 +3784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3741,45 +3810,45 @@
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A2)-ROW($A$2)-9),"")</f>
-        <v>2023-12-10 02:07:06</v>
+        <v>2023-12-09 06:51:15</v>
       </c>
       <c r="B2">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A2)-ROW($A$2)-9),"")</f>
-        <v>19.772727272727298</v>
+        <v>19.9038461538461</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
         <f>AVERAGE(B:B)</f>
-        <v>19.844246662428468</v>
+        <v>19.713127781309591</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A3)-ROW($A$2)-9),"")</f>
-        <v>2023-12-10 02:08:08</v>
+        <v>2023-12-09 06:52:17</v>
       </c>
       <c r="B3">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A3)-ROW($A$2)-9),"")</f>
-        <v>19.772727272727298</v>
+        <v>19.9038461538461</v>
       </c>
       <c r="D3">
         <v>11</v>
       </c>
       <c r="E3">
         <f>AVERAGE(B:B)</f>
-        <v>19.844246662428468</v>
+        <v>19.713127781309591</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A4)-ROW($A$2)-9),"")</f>
-        <v>2023-12-10 02:09:10</v>
+        <v>2023-12-09 06:53:19</v>
       </c>
       <c r="B4">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A4)-ROW($A$2)-9),"")</f>
-        <v>20.166083916083899</v>
+        <v>19.510489510489499</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
@@ -3788,35 +3857,35 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A5)-ROW($A$2)-9),"")</f>
-        <v>2023-12-10 02:10:11</v>
+        <v>2023-12-09 06:54:22</v>
       </c>
       <c r="B5">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A5)-ROW($A$2)-9),"")</f>
-        <v>19.510489510489499</v>
+        <v>19.772727272727298</v>
       </c>
       <c r="E5">
         <f>_xlfn.STDEV.S(B:B)</f>
-        <v>0.2372029808741063</v>
+        <v>0.16958123881541934</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A6)-ROW($A$2)-9),"")</f>
-        <v>2023-12-10 02:11:13</v>
+        <v>2023-12-09 06:55:24</v>
       </c>
       <c r="B6">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A6)-ROW($A$2)-9),"")</f>
-        <v>20.034965034965001</v>
+        <v>19.641608391608401</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A7)-ROW($A$2)-9),"")</f>
-        <v>2023-12-10 02:12:15</v>
+        <v>2023-12-09 06:56:26</v>
       </c>
       <c r="B7">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A7)-ROW($A$2)-9),"")</f>
-        <v>20.034965034965001</v>
+        <v>19.641608391608401</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>7</v>
@@ -3825,36 +3894,36 @@
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A8)-ROW($A$2)-9),"")</f>
-        <v>2023-12-10 02:13:16</v>
+        <v>2023-12-09 06:57:28</v>
       </c>
       <c r="B8">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A8)-ROW($A$2)-9),"")</f>
-        <v>19.9038461538461</v>
+        <v>19.641608391608401</v>
       </c>
       <c r="E8">
         <f>MAX(B:B)</f>
-        <v>20.166083916083899</v>
+        <v>20.034965034965001</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A9)-ROW($A$2)-9),"")</f>
-        <v>2023-12-10 02:14:18</v>
+        <v>2023-12-09 06:58:30</v>
       </c>
       <c r="B9">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A9)-ROW($A$2)-9),"")</f>
-        <v>19.772727272727298</v>
+        <v>19.641608391608401</v>
       </c>
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A10)-ROW($A$2)-9),"")</f>
-        <v>2023-12-10 02:15:19</v>
+        <v>2023-12-09 06:59:32</v>
       </c>
       <c r="B10">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A10)-ROW($A$2)-9),"")</f>
-        <v>19.9038461538461</v>
+        <v>20.034965034965001</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>8</v>
@@ -3863,25 +3932,25 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A11)-ROW($A$2)-9),"")</f>
-        <v>2023-12-10 02:16:21</v>
+        <v>2023-12-09 07:00:34</v>
       </c>
       <c r="B11">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A11)-ROW($A$2)-9),"")</f>
-        <v>19.379370629370602</v>
+        <v>19.641608391608401</v>
       </c>
       <c r="E11">
         <f>MIN(B:B)</f>
-        <v>19.379370629370602</v>
+        <v>19.510489510489499</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A12)-ROW($A$2)-9),"")</f>
-        <v>2023-12-10 02:17:23</v>
+        <v>2023-12-09 07:01:36</v>
       </c>
       <c r="B12">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A12)-ROW($A$2)-9),"")</f>
-        <v>20.034965034965001</v>
+        <v>19.510489510489499</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -3915,8 +3984,8 @@
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17">
-        <f>E14+0.6</f>
-        <v>17.600000000000001</v>
+        <f>E14+0.5</f>
+        <v>17.5</v>
       </c>
     </row>
     <row r="19" spans="5:5" x14ac:dyDescent="0.3">
@@ -3926,8 +3995,8 @@
     </row>
     <row r="20" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E20">
-        <f>E14-0.6</f>
-        <v>16.399999999999999</v>
+        <f>E14-0.5</f>
+        <v>16.5</v>
       </c>
     </row>
     <row r="21" spans="5:5" x14ac:dyDescent="0.3">
